--- a/04_CPlusPlus_DataStructures/003 权限控制 class.xlsx
+++ b/04_CPlusPlus_DataStructures/003 权限控制 class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus_DataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ADDE7A-8220-41C2-8085-A2BAB46EE877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1D4C8-FAFD-4F6A-8ABB-A30A84B4D3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -631,6 +631,394 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5703293" cy="1793183"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067F11E4-9AC8-7B0D-3B16-7B8A2E1ADC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4709160" y="1996440"/>
+          <a:ext cx="5703293" cy="1793183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类外类内派生类都可访问</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>protect </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类外不可访问，派生类可以访问</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只有类内可访问</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>无论以哪种方式继承基类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/protect/private</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>父类的所有成员都会被复制，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>只是基类的私有成员编译器不能访问而已</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0"/>
+            <a:t>    public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>方式继承，基类的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公有成员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>在 派生类 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>仍是共有的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0"/>
+            <a:t>    protect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>方法继承，基类的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公有成员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>在派生类变成 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>被保护的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>，只能派生类的子类可以访问</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0"/>
+            <a:t>    private</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>方式继承，基类的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>共有成员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>在派生类变成 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>私有的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>....</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2318,15 +2706,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:K42"/>
+  <dimension ref="B4:L42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>96</v>
       </c>
@@ -2337,21 +2725,23 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H6" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>77</v>
       </c>
@@ -2359,8 +2749,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -2371,42 +2762,42 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -2519,6 +2910,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>